--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_30.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1806661.910968899</v>
+        <v>1802868.656639451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.101218068</v>
+        <v>2341983.38320608</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9071354.248798329</v>
+        <v>9070148.159391474</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -713,7 +713,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>244.6627684108749</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>292.7257115826073</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>47.15378418218142</v>
       </c>
       <c r="D3" t="n">
-        <v>79.95025386546766</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>70.51949430587821</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>248.4873709734421</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>40.50610367886737</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>120.3098542256832</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>71.2471936129788</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>180.7981310753045</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>52.73514903721528</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1072,7 +1072,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>93.60474926612905</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>260.6529568389228</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>336.7183592900674</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.195297428223774</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>100.158938041649</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>102.6445179934217</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>19.33415213001746</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1585,7 +1585,7 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530682</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G14" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825605</v>
       </c>
       <c r="H14" t="n">
-        <v>181.9505135917103</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414343</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>81.89261498478005</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419574</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007188</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035429</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219401</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507312</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484039</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723253</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380456</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738178</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>48.05516499346167</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>80.22439686479481</v>
       </c>
       <c r="W26" t="n">
         <v>273.2977702070789</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2792,7 +2792,7 @@
         <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>130.7824021433751</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
@@ -2807,7 +2807,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>115.7021826528885</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
         <v>42.96247126414336</v>
@@ -2843,7 +2843,7 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
         <v>159.2039277954309</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C32" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F32" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G32" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U32" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W32" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X32" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V34" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X38" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677958</v>
+        <v>289.0582874597574</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956115</v>
+        <v>281.8122356875732</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.1552067009735</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481337</v>
+        <v>291.1261788400954</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988348</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703897</v>
+        <v>301.5996171623514</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426871</v>
+        <v>213.4107091346488</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197268</v>
+        <v>29.52223494393432</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.4867077218728</v>
+        <v>18.78401418874731</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296904</v>
+        <v>113.834085621652</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832602</v>
+        <v>145.7636914752219</v>
       </c>
       <c r="V41" t="n">
-        <v>225.5751721895828</v>
+        <v>231.2542304089913</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949083</v>
+        <v>259.8575338868699</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297866</v>
+        <v>278.1265682217482</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021177</v>
+        <v>285.0942911940794</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790113</v>
+        <v>75.92442770986277</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818353</v>
+        <v>61.07155596014518</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002326</v>
+        <v>46.6452711719849</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290237</v>
+        <v>46.57171322486401</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266964</v>
+        <v>48.32116464463128</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506177</v>
+        <v>59.14000256702342</v>
       </c>
       <c r="H43" t="n">
-        <v>41.56205374163382</v>
+        <v>46.49225473359546</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280575</v>
+        <v>24.33197031476739</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726167</v>
+        <v>15.23046867922331</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278898</v>
+        <v>93.35641218475062</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269611</v>
+        <v>125.9303505189227</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540309</v>
+        <v>175.1528930459926</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408969</v>
+        <v>155.8880409328585</v>
       </c>
       <c r="W43" t="n">
-        <v>168.135386261647</v>
+        <v>173.0655872536087</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083596</v>
+        <v>124.3080082003212</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850359</v>
+        <v>113.4494297769976</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1280864677958</v>
+        <v>289.0582874597573</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956115</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>274.1552067009733</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481337</v>
+        <v>291.1261788400953</v>
       </c>
       <c r="F44" t="n">
-        <v>300.3637822988348</v>
+        <v>305.2939832907964</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6694161703897</v>
+        <v>301.5996171623513</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426871</v>
+        <v>213.4107091346486</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197268</v>
+        <v>29.52223494393422</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.73785049442618</v>
+        <v>57.41690871383435</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296904</v>
+        <v>113.8340856216519</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832602</v>
+        <v>83.64904934691323</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170296</v>
+        <v>231.2542304089912</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949083</v>
+        <v>259.8575338868698</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297866</v>
+        <v>278.1265682217481</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021177</v>
+        <v>285.0942911940793</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.99422671790113</v>
+        <v>75.92442770986267</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818353</v>
+        <v>61.07155596014508</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002326</v>
+        <v>46.6452711719848</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290237</v>
+        <v>46.57171322486391</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266964</v>
+        <v>48.32116464463118</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506177</v>
+        <v>59.14000256702332</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163382</v>
+        <v>46.49225473359536</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280575</v>
+        <v>24.33197031476729</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726167</v>
+        <v>15.23046867922321</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278898</v>
+        <v>93.35641218475052</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269611</v>
+        <v>125.9303505189226</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540309</v>
+        <v>175.1528930459925</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9578399408969</v>
+        <v>155.8880409328584</v>
       </c>
       <c r="W46" t="n">
-        <v>168.135386261647</v>
+        <v>173.0655872536086</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083596</v>
+        <v>124.3080082003211</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850359</v>
+        <v>113.4494297769975</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1411.960001135836</v>
+        <v>592.9466795659941</v>
       </c>
       <c r="C2" t="n">
-        <v>1411.960001135836</v>
+        <v>199.7711780689247</v>
       </c>
       <c r="D2" t="n">
-        <v>1411.960001135836</v>
+        <v>199.7711780689247</v>
       </c>
       <c r="E2" t="n">
-        <v>1009.37647625238</v>
+        <v>199.7711780689247</v>
       </c>
       <c r="F2" t="n">
-        <v>592.482037782358</v>
+        <v>186.9171436393066</v>
       </c>
       <c r="G2" t="n">
-        <v>179.3192822703612</v>
+        <v>177.7947921677138</v>
       </c>
       <c r="H2" t="n">
-        <v>179.3192822703612</v>
+        <v>177.7947921677138</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J2" t="n">
-        <v>185.6319382716542</v>
+        <v>184.1074481690067</v>
       </c>
       <c r="K2" t="n">
-        <v>544.614294299116</v>
+        <v>543.0898041964685</v>
       </c>
       <c r="L2" t="n">
-        <v>544.614294299116</v>
+        <v>1031.378535541179</v>
       </c>
       <c r="M2" t="n">
-        <v>568.8813186115315</v>
+        <v>1031.378535541179</v>
       </c>
       <c r="N2" t="n">
-        <v>1076.035614976504</v>
+        <v>1031.378535541179</v>
       </c>
       <c r="O2" t="n">
-        <v>1516.075215868832</v>
+        <v>1439.850710736462</v>
       </c>
       <c r="P2" t="n">
-        <v>1864.262708000354</v>
+        <v>1788.038202867984</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.108268141303</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R2" t="n">
-        <v>2049.108268141303</v>
+        <v>1934.890849294454</v>
       </c>
       <c r="S2" t="n">
-        <v>1882.594713082353</v>
+        <v>1768.377294235504</v>
       </c>
       <c r="T2" t="n">
-        <v>1659.09411064177</v>
+        <v>1544.876691794921</v>
       </c>
       <c r="U2" t="n">
-        <v>1411.960001135836</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="V2" t="n">
-        <v>1411.960001135836</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="W2" t="n">
-        <v>1411.960001135836</v>
+        <v>1289.12396222952</v>
       </c>
       <c r="X2" t="n">
-        <v>1411.960001135836</v>
+        <v>993.4414252773911</v>
       </c>
       <c r="Y2" t="n">
-        <v>1411.960001135836</v>
+        <v>993.4414252773911</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.1387163056979</v>
+        <v>605.7105456142885</v>
       </c>
       <c r="C3" t="n">
-        <v>379.4844858657901</v>
+        <v>558.0804605817821</v>
       </c>
       <c r="D3" t="n">
-        <v>298.7266536784491</v>
+        <v>558.0804605817821</v>
       </c>
       <c r="E3" t="n">
-        <v>298.7266536784491</v>
+        <v>421.6339696926698</v>
       </c>
       <c r="F3" t="n">
-        <v>298.7266536784491</v>
+        <v>297.2021635758016</v>
       </c>
       <c r="G3" t="n">
-        <v>178.6668357503135</v>
+        <v>177.1423456476661</v>
       </c>
       <c r="H3" t="n">
-        <v>90.36941935091446</v>
+        <v>88.84492924826705</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J3" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="K3" t="n">
-        <v>360.7213114250525</v>
+        <v>359.1968213224051</v>
       </c>
       <c r="L3" t="n">
-        <v>844.2873973233657</v>
+        <v>842.7629072207183</v>
       </c>
       <c r="M3" t="n">
-        <v>1351.441693688338</v>
+        <v>842.7629072207183</v>
       </c>
       <c r="N3" t="n">
-        <v>1643.486899424905</v>
+        <v>844.6085713929333</v>
       </c>
       <c r="O3" t="n">
-        <v>1643.486899424905</v>
+        <v>1332.897302737644</v>
       </c>
       <c r="P3" t="n">
-        <v>2049.108268141303</v>
+        <v>1738.518671454041</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.108268141303</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R3" t="n">
-        <v>2025.191225039367</v>
+        <v>1948.966719906997</v>
       </c>
       <c r="S3" t="n">
-        <v>1890.260547939236</v>
+        <v>1814.036042806865</v>
       </c>
       <c r="T3" t="n">
-        <v>1713.276736138145</v>
+        <v>1637.052231005774</v>
       </c>
       <c r="U3" t="n">
-        <v>1503.213592816786</v>
+        <v>1426.989087684416</v>
       </c>
       <c r="V3" t="n">
-        <v>1280.673591187853</v>
+        <v>1204.449086055483</v>
       </c>
       <c r="W3" t="n">
-        <v>1050.55634532114</v>
+        <v>974.3318401887695</v>
       </c>
       <c r="X3" t="n">
-        <v>861.249267671152</v>
+        <v>785.0247625387813</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.9350507466593</v>
+        <v>605.7105456142885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>425.0184636185392</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="C4" t="n">
-        <v>425.0184636185392</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="D4" t="n">
-        <v>425.0184636185392</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="E4" t="n">
-        <v>425.0184636185392</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="F4" t="n">
-        <v>267.6925288315121</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="G4" t="n">
-        <v>196.4607164013321</v>
+        <v>194.9362262986847</v>
       </c>
       <c r="H4" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I4" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.003708434308</v>
       </c>
       <c r="S4" t="n">
-        <v>942.4291879043784</v>
+        <v>614.1876246168574</v>
       </c>
       <c r="T4" t="n">
-        <v>942.4291879043784</v>
+        <v>614.1876246168574</v>
       </c>
       <c r="U4" t="n">
-        <v>942.4291879043784</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="V4" t="n">
-        <v>942.4291879043784</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="W4" t="n">
-        <v>659.0987858355561</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="X4" t="n">
-        <v>425.0184636185392</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="Y4" t="n">
-        <v>425.0184636185392</v>
+        <v>363.1902801992391</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>498.7918600741285</v>
+        <v>1253.499118868581</v>
       </c>
       <c r="C5" t="n">
-        <v>498.7918600741285</v>
+        <v>1253.499118868581</v>
       </c>
       <c r="D5" t="n">
-        <v>498.7918600741285</v>
+        <v>868.0579900852491</v>
       </c>
       <c r="E5" t="n">
-        <v>498.7918600741285</v>
+        <v>465.4744652017936</v>
       </c>
       <c r="F5" t="n">
-        <v>81.89742160410623</v>
+        <v>48.58002673177141</v>
       </c>
       <c r="G5" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="H5" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J5" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="K5" t="n">
-        <v>40.98216536282605</v>
+        <v>398.4400312876405</v>
       </c>
       <c r="L5" t="n">
-        <v>534.3024570813549</v>
+        <v>886.7287626323512</v>
       </c>
       <c r="M5" t="n">
-        <v>1041.456753446327</v>
+        <v>999.8111098441332</v>
       </c>
       <c r="N5" t="n">
-        <v>1548.6110498113</v>
+        <v>999.8111098441332</v>
       </c>
       <c r="O5" t="n">
-        <v>1988.650650703628</v>
+        <v>1439.850710736462</v>
       </c>
       <c r="P5" t="n">
-        <v>2049.108268141303</v>
+        <v>1788.038202867984</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.108268141303</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R5" t="n">
-        <v>2049.108268141303</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="S5" t="n">
-        <v>1882.594713082353</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="T5" t="n">
-        <v>1882.594713082353</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="U5" t="n">
-        <v>1626.841983516952</v>
+        <v>1717.131033443531</v>
       </c>
       <c r="V5" t="n">
-        <v>1284.735174220471</v>
+        <v>1375.024224147049</v>
       </c>
       <c r="W5" t="n">
-        <v>1284.735174220471</v>
+        <v>1253.499118868581</v>
       </c>
       <c r="X5" t="n">
-        <v>895.2825691535273</v>
+        <v>1253.499118868581</v>
       </c>
       <c r="Y5" t="n">
-        <v>498.7918600741285</v>
+        <v>1253.499118868581</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530.1387163056979</v>
+        <v>838.8236584002095</v>
       </c>
       <c r="C6" t="n">
-        <v>379.4844858657901</v>
+        <v>688.1694279603017</v>
       </c>
       <c r="D6" t="n">
-        <v>249.3955184872705</v>
+        <v>558.0804605817821</v>
       </c>
       <c r="E6" t="n">
-        <v>112.9490275981582</v>
+        <v>421.6339696926698</v>
       </c>
       <c r="F6" t="n">
-        <v>40.98216536282605</v>
+        <v>297.2021635758016</v>
       </c>
       <c r="G6" t="n">
-        <v>40.98216536282605</v>
+        <v>177.1423456476661</v>
       </c>
       <c r="H6" t="n">
-        <v>40.98216536282605</v>
+        <v>88.84492924826705</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J6" t="n">
-        <v>40.98216536282605</v>
+        <v>152.572657479906</v>
       </c>
       <c r="K6" t="n">
-        <v>360.7213114250525</v>
+        <v>361.0424854946201</v>
       </c>
       <c r="L6" t="n">
-        <v>394.8132151400698</v>
+        <v>844.6085713929333</v>
       </c>
       <c r="M6" t="n">
-        <v>901.9675115050422</v>
+        <v>1332.897302737644</v>
       </c>
       <c r="N6" t="n">
-        <v>901.9675115050422</v>
+        <v>1332.897302737644</v>
       </c>
       <c r="O6" t="n">
-        <v>1409.121807870015</v>
+        <v>1332.897302737644</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.743176586412</v>
+        <v>1738.518671454041</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.108268141303</v>
+        <v>1972.883763008932</v>
       </c>
       <c r="R6" t="n">
-        <v>2025.191225039367</v>
+        <v>1948.966719906997</v>
       </c>
       <c r="S6" t="n">
-        <v>1890.260547939236</v>
+        <v>1948.966719906997</v>
       </c>
       <c r="T6" t="n">
-        <v>1713.276736138145</v>
+        <v>1771.982908105905</v>
       </c>
       <c r="U6" t="n">
-        <v>1503.213592816786</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="V6" t="n">
-        <v>1280.673591187853</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="W6" t="n">
-        <v>1050.55634532114</v>
+        <v>1359.241287415652</v>
       </c>
       <c r="X6" t="n">
-        <v>861.249267671152</v>
+        <v>1169.934209765664</v>
       </c>
       <c r="Y6" t="n">
-        <v>681.9350507466593</v>
+        <v>990.6199928411709</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="C7" t="n">
-        <v>706.7101360726125</v>
+        <v>676.1493280837515</v>
       </c>
       <c r="D7" t="n">
-        <v>551.0770229751272</v>
+        <v>520.5162149862662</v>
       </c>
       <c r="E7" t="n">
-        <v>551.0770229751272</v>
+        <v>520.5162149862662</v>
       </c>
       <c r="F7" t="n">
-        <v>497.8091956648087</v>
+        <v>363.1902801992391</v>
       </c>
       <c r="G7" t="n">
-        <v>329.5551417642542</v>
+        <v>194.9362262986847</v>
       </c>
       <c r="H7" t="n">
-        <v>174.0765907257482</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282605</v>
+        <v>39.45767526017864</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701205</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465677</v>
+        <v>285.4203562439203</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848317</v>
+        <v>471.7119345821843</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133935</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551015</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.48250143168</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.904697801731</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="S7" t="n">
-        <v>942.4291879043784</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="T7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="U7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="V7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="W7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="X7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
       <c r="Y7" t="n">
-        <v>706.7101360726125</v>
+        <v>846.3544460177623</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1140.655979072374</v>
+        <v>1654.529915207016</v>
       </c>
       <c r="C8" t="n">
-        <v>1140.655979072374</v>
+        <v>1261.354413709946</v>
       </c>
       <c r="D8" t="n">
-        <v>1140.655979072374</v>
+        <v>875.9132849266141</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1937.641433863169</v>
+        <v>2025.528950238728</v>
       </c>
       <c r="W8" t="n">
-        <v>1937.641433863169</v>
+        <v>1654.529915207016</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.641433863169</v>
+        <v>1654.529915207016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.150724783771</v>
+        <v>1654.529915207016</v>
       </c>
     </row>
     <row r="9">
@@ -4887,19 +4887,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.6389048885707</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="C10" t="n">
-        <v>204.6389048885707</v>
+        <v>54.58094730176964</v>
       </c>
       <c r="D10" t="n">
-        <v>204.6389048885707</v>
+        <v>54.58094730176964</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>54.58094730176964</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>54.58094730176964</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>54.58094730176964</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>589.1399514439072</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>589.1399514439072</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>487.969306957393</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W10" t="n">
-        <v>204.6389048885707</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X10" t="n">
-        <v>204.6389048885707</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.6389048885707</v>
+        <v>224.7860652357804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1609.543013684024</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1311.308193474143</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>1020.807745977999</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>713.1649023817317</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>609.4835710752452</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707836</v>
+        <v>291.2614968504367</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244626</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2787.217383424722</v>
       </c>
       <c r="W11" t="n">
-        <v>2478.315967397137</v>
+        <v>2511.159029680198</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>2216.647105900443</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1915.097078108233</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443716</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445329</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311668</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5203,16 +5203,16 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5224,13 +5224,13 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
@@ -5239,10 +5239,10 @@
         <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1825.85790360178</v>
+        <v>1642.069506034397</v>
       </c>
       <c r="C14" t="n">
-        <v>1527.623083391899</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.122635895756</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E14" t="n">
-        <v>929.4797922994885</v>
+        <v>745.6913947321052</v>
       </c>
       <c r="F14" t="n">
-        <v>607.5260351166548</v>
+        <v>423.7376375492712</v>
       </c>
       <c r="G14" t="n">
-        <v>289.3039608918465</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244625</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404062</v>
@@ -5285,43 +5285,43 @@
         <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N14" t="n">
         <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434017</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2951.663698318078</v>
       </c>
       <c r="U14" t="n">
-        <v>2945.144336927563</v>
+        <v>2790.851650039865</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.97820891827</v>
+        <v>2543.685522030572</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.919855173746</v>
+        <v>2543.685522030572</v>
       </c>
       <c r="X14" t="n">
-        <v>2127.407931393991</v>
+        <v>2249.173598250817</v>
       </c>
       <c r="Y14" t="n">
-        <v>1825.85790360178</v>
+        <v>1947.623570458606</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="L15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="M15" t="n">
-        <v>803.0057595505241</v>
+        <v>689.8907773307972</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.783730761083</v>
+        <v>1345.668748541357</v>
       </c>
       <c r="O15" t="n">
-        <v>1975.304013352064</v>
+        <v>1862.189031132338</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551009</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082782</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979813</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798494</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
         <v>557.4621512791396</v>
@@ -5446,13 +5446,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852109</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553822</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592138</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.156408878212</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1863.93438008877</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O18" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,16 +5671,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229859</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N19" t="n">
         <v>683.1426636655135</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.542679919435</v>
+        <v>1879.067170022083</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.307859709554</v>
+        <v>1580.832349812202</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.80741221341</v>
+        <v>1290.331902316058</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171432</v>
+        <v>982.6890587197909</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343093</v>
+        <v>660.735301536957</v>
       </c>
       <c r="G26" t="n">
-        <v>340.9887372095009</v>
+        <v>342.5132273121485</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8463680631799</v>
+        <v>113.3708581658273</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J26" t="n">
-        <v>306.1510670812345</v>
+        <v>214.6241954543086</v>
       </c>
       <c r="K26" t="n">
-        <v>733.4256248486964</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L26" t="n">
-        <v>1319.797278296799</v>
+        <v>1253.029566659446</v>
       </c>
       <c r="M26" t="n">
-        <v>1865.798178341379</v>
+        <v>1892.0818284336</v>
       </c>
       <c r="N26" t="n">
-        <v>2393.609461978841</v>
+        <v>2469.83396711121</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.64906287117</v>
+        <v>2909.873568003539</v>
       </c>
       <c r="P26" t="n">
-        <v>3181.836555002692</v>
+        <v>3258.061060135061</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143641</v>
+        <v>3442.90662027601</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141654</v>
+        <v>3498.721127274023</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369893</v>
+        <v>3427.148253502262</v>
       </c>
       <c r="T26" t="n">
-        <v>3302.383177669427</v>
+        <v>3298.588332348867</v>
       </c>
       <c r="U26" t="n">
-        <v>3302.383177669427</v>
+        <v>3137.776284070654</v>
       </c>
       <c r="V26" t="n">
-        <v>3055.217049660133</v>
+        <v>3056.741539762781</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.158695915609</v>
+        <v>2780.683186018256</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.646772135854</v>
+        <v>2486.171262238502</v>
       </c>
       <c r="Y26" t="n">
-        <v>2183.096744343644</v>
+        <v>2184.621234446291</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.815915582864</v>
+        <v>869.3404056855114</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429562</v>
+        <v>718.6861752456036</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644366</v>
+        <v>588.597207867084</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611035</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303205</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J27" t="n">
-        <v>68.44993244283307</v>
+        <v>183.0894047652079</v>
       </c>
       <c r="K27" t="n">
-        <v>388.1890785050595</v>
+        <v>502.8285508274343</v>
       </c>
       <c r="L27" t="n">
-        <v>871.7551644033728</v>
+        <v>986.3946367257475</v>
       </c>
       <c r="M27" t="n">
-        <v>871.7551644033728</v>
+        <v>986.3946367257475</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1642.172607936307</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>2158.692890527288</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2158.692890527288</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938177</v>
+        <v>500.9396617964655</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469954</v>
+        <v>425.6752251496434</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366984</v>
+        <v>364.9827933393464</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857369</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858982</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698843</v>
+        <v>168.6660363725322</v>
       </c>
       <c r="H28" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212143</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548046</v>
       </c>
       <c r="J28" t="n">
-        <v>131.727551574969</v>
+        <v>133.2520416776164</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144836</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178565</v>
+        <v>565.3174461205043</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856936</v>
+        <v>844.6603861883415</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846476</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239276</v>
+        <v>858.5180200265754</v>
       </c>
       <c r="X28" t="n">
-        <v>717.853888994099</v>
+        <v>719.3783790967468</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979306</v>
+        <v>591.2069992005785</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1765.271202341689</v>
+        <v>1712.935786320663</v>
       </c>
       <c r="C29" t="n">
-        <v>1467.036382131808</v>
+        <v>1580.832349812202</v>
       </c>
       <c r="D29" t="n">
-        <v>1176.535934635664</v>
+        <v>1290.331902316058</v>
       </c>
       <c r="E29" t="n">
-        <v>868.8930910393969</v>
+        <v>982.6890587197906</v>
       </c>
       <c r="F29" t="n">
-        <v>546.9393338565631</v>
+        <v>660.7353015369567</v>
       </c>
       <c r="G29" t="n">
-        <v>228.7172596317546</v>
+        <v>342.5132273121483</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8463680631799</v>
+        <v>113.3708581658273</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J29" t="n">
-        <v>213.0997053516612</v>
+        <v>307.6755571838818</v>
       </c>
       <c r="K29" t="n">
-        <v>665.1334231086963</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1158.453714827225</v>
+        <v>1253.029566659446</v>
       </c>
       <c r="M29" t="n">
-        <v>1704.454614871806</v>
+        <v>1799.030466704026</v>
       </c>
       <c r="N29" t="n">
-        <v>2325.317260238841</v>
+        <v>2376.782605381637</v>
       </c>
       <c r="O29" t="n">
-        <v>2833.64906287117</v>
+        <v>2816.822206273965</v>
       </c>
       <c r="P29" t="n">
-        <v>3181.836555002692</v>
+        <v>3258.06106013506</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143641</v>
+        <v>3442.906620276009</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141654</v>
+        <v>3498.721127274022</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369893</v>
+        <v>3427.148253502261</v>
       </c>
       <c r="T29" t="n">
-        <v>3350.923748369893</v>
+        <v>3298.588332348867</v>
       </c>
       <c r="U29" t="n">
-        <v>3190.11170009168</v>
+        <v>3137.776284070654</v>
       </c>
       <c r="V29" t="n">
-        <v>2942.945572082387</v>
+        <v>2890.610156061361</v>
       </c>
       <c r="W29" t="n">
-        <v>2666.887218337863</v>
+        <v>2614.551802316837</v>
       </c>
       <c r="X29" t="n">
-        <v>2372.375294558108</v>
+        <v>2320.039878537082</v>
       </c>
       <c r="Y29" t="n">
-        <v>2070.825266765898</v>
+        <v>2018.489850744871</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.815915582864</v>
+        <v>869.3404056855114</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429562</v>
+        <v>718.6861752456036</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644366</v>
+        <v>588.597207867084</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753243</v>
+        <v>452.1507169779717</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584561</v>
+        <v>327.7189108611035</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303205</v>
+        <v>207.659092932968</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309215</v>
+        <v>119.3616765335689</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="K30" t="n">
-        <v>501.3040607247869</v>
+        <v>354.8305706887436</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231001</v>
+        <v>838.3966565870569</v>
       </c>
       <c r="M30" t="n">
-        <v>984.8701466231001</v>
+        <v>1466.168306213738</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>1466.168306213738</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>1982.688588804719</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521117</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050966</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.415171693818</v>
+        <v>500.9396617964657</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469956</v>
+        <v>425.6752251496432</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366984</v>
+        <v>364.982793339346</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857372</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832509</v>
+        <v>241.9794089858985</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698848</v>
+        <v>168.6660363725322</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185671</v>
+        <v>108.1281666212145</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283307</v>
+        <v>69.97442254548045</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144841</v>
+        <v>308.1384445171315</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178569</v>
+        <v>565.3174461205043</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856943</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226558</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.5737981433</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239278</v>
+        <v>858.5180200265754</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940993</v>
+        <v>719.3783790967469</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.682509097931</v>
+        <v>591.2069992005786</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099303</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292421</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,28 +6722,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205774</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829233</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071058</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V32" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840154</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="33">
@@ -6762,10 +6762,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E33" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F33" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G33" t="n">
         <v>199.803798091603</v>
@@ -6774,22 +6774,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1084.690231197904</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N33" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
         <v>1740.468202408463</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369565</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218798</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407265</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462904</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411548</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229791</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222398</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M34" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N34" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O34" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P34" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,46 +7099,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960397</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343037</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.671840509931</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924211</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7236,10 +7236,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G39" t="n">
         <v>199.803798091603</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L39" t="n">
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369565</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218798</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072652</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462906</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960396</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343036</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655128</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.847430707221</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1469.375443974448</v>
+        <v>1467.802140299647</v>
       </c>
       <c r="C41" t="n">
-        <v>1189.696621049588</v>
+        <v>1183.143316372806</v>
       </c>
       <c r="D41" t="n">
-        <v>1189.696621049588</v>
+        <v>906.2188651597013</v>
       </c>
       <c r="E41" t="n">
-        <v>900.6097747383419</v>
+        <v>612.1520178464737</v>
       </c>
       <c r="F41" t="n">
-        <v>597.2120148405293</v>
+        <v>612.1520178464737</v>
       </c>
       <c r="G41" t="n">
-        <v>297.5459379007416</v>
+        <v>307.5059399047045</v>
       </c>
       <c r="H41" t="n">
-        <v>86.95956603944147</v>
+        <v>91.93956704142292</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3052.939508719036</v>
+        <v>3086.982633499971</v>
       </c>
       <c r="T41" t="n">
-        <v>2942.935584850662</v>
+        <v>2971.998708629615</v>
       </c>
       <c r="U41" t="n">
-        <v>2800.67953385747</v>
+        <v>2824.762656634441</v>
       </c>
       <c r="V41" t="n">
-        <v>2572.825824575063</v>
+        <v>2591.172524908187</v>
       </c>
       <c r="W41" t="n">
-        <v>2315.32346811556</v>
+        <v>2328.690167446703</v>
       </c>
       <c r="X41" t="n">
-        <v>2039.367541620826</v>
+        <v>2047.754239949988</v>
       </c>
       <c r="Y41" t="n">
-        <v>1756.373511113636</v>
+        <v>1759.780208440817</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.192385959954</v>
+        <v>398.0523929738243</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981525</v>
+        <v>336.3639526100413</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728765</v>
+        <v>289.2475170827838</v>
       </c>
       <c r="E43" t="n">
-        <v>222.2853785042882</v>
+        <v>242.2053825122141</v>
       </c>
       <c r="F43" t="n">
-        <v>178.4561222894704</v>
+        <v>193.3961252954148</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611252</v>
+        <v>133.6587489650881</v>
       </c>
       <c r="H43" t="n">
-        <v>81.7168744948284</v>
+        <v>86.69687549680987</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>143.5834797753003</v>
+        <v>134.1115556683126</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6566155538644</v>
+        <v>322.3037924648347</v>
       </c>
       <c r="L43" t="n">
-        <v>612.0223500962865</v>
+        <v>592.7886280252147</v>
       </c>
       <c r="M43" t="n">
-        <v>798.3139284345505</v>
+        <v>779.0802063634787</v>
       </c>
       <c r="N43" t="n">
-        <v>981.5035624657596</v>
+        <v>1068.627036081268</v>
       </c>
       <c r="O43" t="n">
-        <v>1255.44642417609</v>
+        <v>1231.331803122976</v>
       </c>
       <c r="P43" t="n">
-        <v>1375.322589952669</v>
+        <v>1457.565164586135</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924483</v>
+        <v>1460.987360956186</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129269</v>
+        <v>1445.603049158991</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.583628884027</v>
+        <v>1351.303642911768</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624471</v>
+        <v>1224.10126865023</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385809</v>
+        <v>1047.179154462358</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316144</v>
+        <v>889.7164868534104</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350012</v>
+        <v>714.9027623548158</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901935</v>
+        <v>589.3391177080266</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790461</v>
+        <v>474.7437340948978</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1469.375443974448</v>
+        <v>1491.5210772726</v>
       </c>
       <c r="C44" t="n">
-        <v>1189.696621049588</v>
+        <v>1491.5210772726</v>
       </c>
       <c r="D44" t="n">
-        <v>1189.696621049588</v>
+        <v>1214.596626059495</v>
       </c>
       <c r="E44" t="n">
-        <v>900.6097747383419</v>
+        <v>920.5297787462673</v>
       </c>
       <c r="F44" t="n">
-        <v>597.2120148405288</v>
+        <v>612.152017846473</v>
       </c>
       <c r="G44" t="n">
-        <v>297.5459379007416</v>
+        <v>307.5059399047043</v>
       </c>
       <c r="H44" t="n">
-        <v>86.95956603944148</v>
+        <v>91.93956704142283</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7658,7 +7658,7 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
         <v>2572.923332933306</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3053.695930160901</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T44" t="n">
-        <v>2943.692006292527</v>
+        <v>2932.975582846699</v>
       </c>
       <c r="U44" t="n">
-        <v>2801.435955299336</v>
+        <v>2848.481593607393</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.825824575064</v>
+        <v>2614.89146188114</v>
       </c>
       <c r="W44" t="n">
-        <v>2315.32346811556</v>
+        <v>2352.409104419655</v>
       </c>
       <c r="X44" t="n">
-        <v>2039.367541620826</v>
+        <v>2071.473176922939</v>
       </c>
       <c r="Y44" t="n">
-        <v>1756.373511113636</v>
+        <v>1783.499145413768</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.192385959954</v>
+        <v>398.0523929738235</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981525</v>
+        <v>336.3639526100407</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728765</v>
+        <v>289.2475170827833</v>
       </c>
       <c r="E46" t="n">
-        <v>222.2853785042882</v>
+        <v>242.2053825122137</v>
       </c>
       <c r="F46" t="n">
-        <v>178.4561222894704</v>
+        <v>193.3961252954145</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611252</v>
+        <v>133.6587489650879</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482842</v>
+        <v>86.69687549680975</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>138.7025807932584</v>
       </c>
       <c r="K46" t="n">
-        <v>255.1922634826797</v>
+        <v>326.8948175897806</v>
       </c>
       <c r="L46" t="n">
-        <v>419.3199033564795</v>
+        <v>592.7886280252129</v>
       </c>
       <c r="M46" t="n">
-        <v>605.6114816947435</v>
+        <v>779.0802063634769</v>
       </c>
       <c r="N46" t="n">
-        <v>788.8011157259527</v>
+        <v>962.2698403946861</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.532793440608</v>
+        <v>1231.331803122974</v>
       </c>
       <c r="P46" t="n">
-        <v>1266.647053885809</v>
+        <v>1457.565164586133</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924483</v>
+        <v>1460.987360956184</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129269</v>
+        <v>1445.603049158989</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.583628884027</v>
+        <v>1351.303642911766</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624471</v>
+        <v>1224.101268650228</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385809</v>
+        <v>1047.179154462357</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316144</v>
+        <v>889.7164868534093</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350012</v>
+        <v>714.9027623548147</v>
       </c>
       <c r="X46" t="n">
-        <v>544.5191086901935</v>
+        <v>589.3391177080257</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790461</v>
+        <v>474.7437340948969</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>646.4691104827247</v>
       </c>
       <c r="M2" t="n">
-        <v>174.2371973678439</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>661.3955583731098</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>562.1619941870081</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>604.6641890846375</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>380.3672701638304</v>
+        <v>87.23642009882832</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>585.9084996411219</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827247</v>
       </c>
       <c r="M5" t="n">
-        <v>662.002118633053</v>
+        <v>263.9496447409414</v>
       </c>
       <c r="N5" t="n">
-        <v>661.3955583731098</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>211.3697476830207</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>300.1725191865798</v>
       </c>
       <c r="L6" t="n">
-        <v>124.4966132357236</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>604.6641890846375</v>
+        <v>585.6080628015449</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242146</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>320.115627001847</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8535,10 +8535,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084876</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>674.5394322581657</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,19 +8769,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>543.8532815002535</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333323</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>89.59693533333316</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>90.06034685691797</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.3264449482919</v>
+        <v>373.8515870339843</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9173,7 +9173,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9243,7 +9243,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9963,16 +9963,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095476</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>322.9245844628122</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063265</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118432</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>199.6102425680207</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,7 +10823,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110161</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,13 +11139,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>124.6469814435369</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>216.0897016175839</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>253.9636180770615</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.90043186314744</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>45.38170695708104</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>79.21915694839936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>164.4700698644055</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>164.4700698644072</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>111.1487628019693</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>269.2250057090118</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>305.2939832907965</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.63289452508713</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.7488572274467913</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>281.8122356875731</v>
       </c>
       <c r="D44" t="n">
-        <v>269.2250057090118</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.7488572274466208</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>62.11464212830855</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>784270.3055019546</v>
+        <v>782889.4870423144</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>784270.3055019546</v>
+        <v>782889.4870423144</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>755330.2486858936</v>
+        <v>755330.2486858935</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779775.9927807587</v>
+        <v>785662.6527651608</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779775.9927807585</v>
+        <v>785662.6527651607</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777264.5508366254</v>
+        <v>771377.8908522232</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777264.5508366254</v>
+        <v>771377.8908522233</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>540996.5342800702</v>
       </c>
       <c r="C2" t="n">
-        <v>540996.5342800701</v>
+        <v>540996.5342800702</v>
       </c>
       <c r="D2" t="n">
+        <v>540996.53428007</v>
+      </c>
+      <c r="E2" t="n">
+        <v>508428.3680497155</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508428.3680497142</v>
+      </c>
+      <c r="G2" t="n">
         <v>540996.5342800703</v>
       </c>
-      <c r="E2" t="n">
-        <v>508428.3680497156</v>
-      </c>
-      <c r="F2" t="n">
-        <v>508428.3680497155</v>
-      </c>
-      <c r="G2" t="n">
-        <v>540996.5342800705</v>
-      </c>
       <c r="H2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.5342800706</v>
       </c>
       <c r="I2" t="n">
         <v>540996.5342800703</v>
       </c>
       <c r="J2" t="n">
-        <v>526762.6761208641</v>
+        <v>531177.6711091661</v>
       </c>
       <c r="K2" t="n">
-        <v>526762.6761208643</v>
+        <v>531177.6711091659</v>
       </c>
       <c r="L2" t="n">
-        <v>540996.5342800705</v>
+        <v>540996.5342800701</v>
       </c>
       <c r="M2" t="n">
+        <v>540996.5342800701</v>
+      </c>
+      <c r="N2" t="n">
         <v>540996.5342800702</v>
       </c>
-      <c r="N2" t="n">
-        <v>540996.5342800703</v>
-      </c>
       <c r="O2" t="n">
-        <v>524879.0946627639</v>
+        <v>520464.0996744622</v>
       </c>
       <c r="P2" t="n">
-        <v>524879.0946627638</v>
+        <v>520464.0996744621</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360795</v>
+        <v>165289.6813277106</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984792</v>
+        <v>30501.12795716499</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>4.96498627715437e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301388</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602869</v>
+        <v>58189.91174602883</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.9212398918</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316104</v>
+        <v>27755.29688959167</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238615.3248246</v>
+        <v>242370.3115962892</v>
       </c>
       <c r="C4" t="n">
-        <v>238615.3248245999</v>
+        <v>242370.3115962892</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,7 +26427,7 @@
         <v>174664.8493247783</v>
       </c>
       <c r="F4" t="n">
-        <v>174664.8493247784</v>
+        <v>174664.8493247783</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26439,13 +26439,13 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188938.3872119905</v>
+        <v>192375.5280079685</v>
       </c>
       <c r="K4" t="n">
-        <v>188938.3872119904</v>
+        <v>192375.5280079684</v>
       </c>
       <c r="L4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682602</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26454,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>187091.6797433469</v>
+        <v>183756.6055360511</v>
       </c>
       <c r="P4" t="n">
-        <v>187091.679743347</v>
+        <v>183756.6055360512</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.0456757478</v>
+        <v>63615.43319773577</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.0456757478</v>
+        <v>63615.43319773577</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890914</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.70111033446</v>
+        <v>61082.31358834646</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.70111033445</v>
+        <v>61082.31358834644</v>
       </c>
       <c r="L5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551964</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330598</v>
+        <v>56242.19673611276</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330599</v>
+        <v>56242.19673611277</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65931.33624364302</v>
+        <v>69721.1081583347</v>
       </c>
       <c r="C6" t="n">
-        <v>237607.1637797224</v>
+        <v>235010.7894860453</v>
       </c>
       <c r="D6" t="n">
-        <v>223807.4970013818</v>
+        <v>217888.0924940643</v>
       </c>
       <c r="E6" t="n">
-        <v>148198.298078316</v>
+        <v>148089.7375242148</v>
       </c>
       <c r="F6" t="n">
-        <v>278651.229216028</v>
+        <v>278542.6686619251</v>
       </c>
       <c r="G6" t="n">
-        <v>254462.6391232761</v>
+        <v>254462.6391232765</v>
       </c>
       <c r="H6" t="n">
-        <v>283557.5949962905</v>
+        <v>283557.5949962906</v>
       </c>
       <c r="I6" t="n">
-        <v>283557.5949962903</v>
+        <v>283557.5949962904</v>
       </c>
       <c r="J6" t="n">
-        <v>77063.08972649692</v>
+        <v>76849.60189690598</v>
       </c>
       <c r="K6" t="n">
-        <v>277900.5877985395</v>
+        <v>277687.0999689481</v>
       </c>
       <c r="L6" t="n">
-        <v>225367.6832502618</v>
+        <v>225367.6832502614</v>
       </c>
       <c r="M6" t="n">
-        <v>237435.6737563986</v>
+        <v>237435.6737563983</v>
       </c>
       <c r="N6" t="n">
-        <v>283557.5949962903</v>
+        <v>283557.5949962902</v>
       </c>
       <c r="O6" t="n">
-        <v>249431.2834329499</v>
+        <v>252641.5590640213</v>
       </c>
       <c r="P6" t="n">
-        <v>281130.7411161108</v>
+        <v>280396.8559536128</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,25 +26707,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="P2" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.351986629255041e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353257</v>
+        <v>493.220940752233</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353257</v>
+        <v>493.220940752233</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,7 +26799,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
@@ -26811,25 +26811,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354135</v>
+        <v>874.6802818185057</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354135</v>
+        <v>874.6802818185056</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014435</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126802</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253586</v>
+        <v>72.73738968253603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.6243221039513</v>
+        <v>34.69412111198959</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.351986629255041e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.252145699940671e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353257</v>
+        <v>493.220940752233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.1350592339694</v>
+        <v>98.19118551706208</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692946</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321496</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126802</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353257</v>
+        <v>493.220940752233</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.1350592339694</v>
+        <v>98.19118551706208</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>8.53243385887248</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,7 +27442,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>92.83236743366638</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>101.9939039533273</v>
       </c>
       <c r="D3" t="n">
-        <v>48.8378238392668</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>96.0520190556707</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>34.09703286707597</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27619,16 +27619,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>368.5250242780095</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>246.9791904557122</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>51.94029444272071</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>27.16438081284008</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>103.0175264019415</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>29.05723020761975</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>137.9047327956981</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>1.967381913449401</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,13 +28020,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>146.7284680998972</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>163.160613685735</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733314</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431638</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668742</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668811</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28998,10 +28998,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>5.636002634528545</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,43 +29272,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98202195959607</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>50.44530812136225</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>50.44530812136179</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="O29" t="n">
-        <v>68.98202195959618</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733098</v>
       </c>
       <c r="S32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668677</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634527756</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="39">
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.63600263452912</v>
+        <v>5.636002634527671</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="J43" t="n">
-        <v>112.3617117864871</v>
+        <v>102.7941116784187</v>
       </c>
       <c r="K43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="L43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="O43" t="n">
-        <v>112.3617117864871</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.588443032083908</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="C46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="D46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="F46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="G46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="H46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="I46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="K46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>102.7941116784167</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>84.87566734641175</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="P46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.3617117864871</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="S46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="U46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="V46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="W46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="X46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.3617117864871</v>
+        <v>107.4315107945256</v>
       </c>
     </row>
   </sheetData>
@@ -31996,31 +31996,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.826103216782855e-13</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.736855353532064e-13</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3.395311075361467e-13</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3.777937777745444e-13</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.839068760701709e-13</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3.625123767557368e-13</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>3.093959265407684e-13</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>2.323434557225991e-13</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.351524543115345e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.087614565856442e-13</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.858906525747951e-13</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.4995292271818e-13</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.916832712943997e-13</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.994032595549007e-13</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2.738954893181115e-13</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.19825277230666e-13</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1.469473762809799e-13</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -32157,22 +32157,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.121285067571793e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.434858841554704e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.512857466364666e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.476885097217216e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.364142428059957e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.167259510091951e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -34702,16 +34702,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>493.220940752233</v>
       </c>
       <c r="M2" t="n">
-        <v>24.51214577011668</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>512.2770670353257</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>412.5981567629116</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>512.2770670353257</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>294.9951573096638</v>
+        <v>1.864307244661655</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>493.220940752233</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>493.220940752233</v>
       </c>
       <c r="M5" t="n">
-        <v>512.2770670353257</v>
+        <v>114.2245931432142</v>
       </c>
       <c r="N5" t="n">
-        <v>512.2770670353257</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>61.06830044209553</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>210.5755838532465</v>
       </c>
       <c r="L6" t="n">
-        <v>34.43626637880539</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>512.2770670353257</v>
+        <v>493.220940752233</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353257</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>170.3905754041197</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515693</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260892</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317799</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682113</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510918</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449115</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457866</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.704537506588</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110594</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>634.1127774006884</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>662.4019911217772</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>521.7376591828094</v>
       </c>
       <c r="P15" t="n">
-        <v>409.2430801289772</v>
+        <v>286.7682222146698</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120107</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L16" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492754</v>
       </c>
       <c r="O16" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446887</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528348</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094871</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529037</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,10 +36294,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>431.5904623913757</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>583.5880188662734</v>
       </c>
       <c r="O26" t="n">
         <v>444.4844453457863</v>
@@ -36616,7 +36616,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>362.145010255381</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>231.9364313068982</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>583.5880188662729</v>
       </c>
       <c r="O29" t="n">
-        <v>513.4664673053825</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729932</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576765</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>107.2231205187088</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5.636002634527702</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565477</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905431</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317787</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565491</v>
+        <v>171.4214974565477</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,7 +37716,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.28722431432806</v>
+        <v>72.71962420625968</v>
       </c>
       <c r="K43" t="n">
-        <v>195.0233694732971</v>
+        <v>190.0931684813355</v>
       </c>
       <c r="L43" t="n">
-        <v>278.1472066085071</v>
+        <v>273.2170056165455</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>292.4715451694843</v>
       </c>
       <c r="O43" t="n">
-        <v>276.709961323566</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>228.5185469324837</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.045207042236391</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.35702332236653</v>
       </c>
       <c r="K46" t="n">
-        <v>195.0233694732971</v>
+        <v>190.0931684813356</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>268.5796065004367</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,13 +38187,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>249.2239168834906</v>
+        <v>271.7797603316045</v>
       </c>
       <c r="P46" t="n">
-        <v>233.4487479244453</v>
+        <v>228.5185469324838</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.8184757966396</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
